--- a/sc/qa/unit/data/xlsx/tdf166724_cellAnchor.xlsx
+++ b/sc/qa/unit/data/xlsx/tdf166724_cellAnchor.xlsx
@@ -19,7 +19,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Carlito"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -138,7 +138,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Carlito"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
